--- a/resources/excels/NE.xlsx
+++ b/resources/excels/NE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280" firstSheet="15" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="387">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1177,6 +1177,42 @@
   </si>
   <si>
     <t>NE Action Authentication</t>
+  </si>
+  <si>
+    <t>UC-UT Offer</t>
+  </si>
+  <si>
+    <t>Offer ID</t>
+  </si>
+  <si>
+    <t>Offer Name</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>PAM Service ID</t>
+  </si>
+  <si>
+    <t>Offer Type</t>
+  </si>
+  <si>
+    <t>Offer State</t>
+  </si>
+  <si>
+    <t>No. Of DAs</t>
+  </si>
+  <si>
+    <t>Friends and Family</t>
+  </si>
+  <si>
+    <t>FnF Number</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>FnF Indicator</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1530,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1578,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1626,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,7 +1674,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -3348,10 +3384,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3950,6 +3986,70 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/excels/NE.xlsx
+++ b/resources/excels/NE.xlsx
@@ -1,46 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280" firstSheet="1" activeTab="2"/>
+    <workbookView activeTab="2" firstSheet="1" windowHeight="20280" windowWidth="35835" xWindow="0" yWindow="465"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="Priority" sheetId="10" r:id="rId2"/>
-    <sheet name="Headers" sheetId="11" r:id="rId3"/>
-    <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId4"/>
-    <sheet name="All NFTR codes" sheetId="22" r:id="rId5"/>
-    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId6"/>
-    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId7"/>
-    <sheet name="All FTR codes" sheetId="23" r:id="rId8"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId9"/>
-    <sheet name="UserManagement" sheetId="13" r:id="rId10"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId11"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId12"/>
-    <sheet name="TemplateManagement" sheetId="16" r:id="rId13"/>
-    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId14"/>
-    <sheet name="Authentication Policy" sheetId="18" r:id="rId15"/>
-    <sheet name="Action Tagging" sheetId="19" r:id="rId16"/>
-    <sheet name="State Queue Mapping" sheetId="20" r:id="rId17"/>
-    <sheet name="Transfer To Queue" sheetId="21" r:id="rId18"/>
-    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId19"/>
+    <sheet name="LoginCredentials" r:id="rId1" sheetId="1"/>
+    <sheet name="Priority" r:id="rId2" sheetId="10"/>
+    <sheet name="Headers" r:id="rId3" sheetId="11"/>
+    <sheet name="NFTRTickets-Reg" r:id="rId4" sheetId="15"/>
+    <sheet name="All NFTR codes" r:id="rId5" sheetId="22"/>
+    <sheet name="NFTRTickets-San" r:id="rId6" sheetId="3"/>
+    <sheet name="FTRTickets-Reg" r:id="rId7" sheetId="14"/>
+    <sheet name="All FTR codes" r:id="rId8" sheetId="23"/>
+    <sheet name="FTRTickets-San" r:id="rId9" sheetId="2"/>
+    <sheet name="UserManagement" r:id="rId10" sheetId="13"/>
+    <sheet name="PinnedTags" r:id="rId11" sheetId="5"/>
+    <sheet name="Ticket State" r:id="rId12" sheetId="6"/>
+    <sheet name="TemplateManagement" r:id="rId13" sheetId="16"/>
+    <sheet name="Ticket Transfer Rules" r:id="rId14" sheetId="17"/>
+    <sheet name="Authentication Policy" r:id="rId15" sheetId="18"/>
+    <sheet name="Action Tagging" r:id="rId16" sheetId="19"/>
+    <sheet name="State Queue Mapping" r:id="rId17" sheetId="20"/>
+    <sheet name="Transfer To Queue" r:id="rId18" sheetId="21"/>
+    <sheet name="QuestionAnswerKey" r:id="rId19" sheetId="24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'FTRTickets-Reg'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'FTRTickets-San'!$A$1:$E$126</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'NFTRTickets-San'!$A$1:$AB$72</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'FTRTickets-Reg'!$A$1:$F$1</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'FTRTickets-San'!$A$1:$E$126</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'NFTRTickets-Reg'!$A$1:$AB$1</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'NFTRTickets-San'!$A$1:$AB$72</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="388">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1213,12 +1213,16 @@
   </si>
   <si>
     <t>FnF Indicator</t>
+  </si>
+  <si>
+    <t>010721000178</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1409,77 +1413,77 @@
     </border>
   </borders>
   <cellStyleXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="6" numFmtId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="3"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="9" numFmtId="0" xfId="2"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="2"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyProtection="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="5"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="6">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf applyBorder="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyProtection="1">
+    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="6">
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal 4" xfId="3"/>
@@ -1498,7 +1502,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1511,7 +1515,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1530,12 +1534,12 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -1578,12 +1582,12 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -1626,12 +1630,12 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -1674,12 +1678,12 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -1712,10 +1716,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1750,7 +1754,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1802,7 +1806,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1913,21 +1917,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1944,7 +1948,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1996,14 +2000,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2012,11 +2016,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2154,13 +2158,13 @@
       <c r="Q5" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2169,9 +2173,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2356,12 +2360,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2406,15 +2410,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule dxfId="0" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -2426,9 +2430,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2486,13 +2490,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2501,8 +2505,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9" style="15" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="15" width="30.875" collapsed="true"/>
+    <col min="2" max="16384" style="15" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2553,12 +2557,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2567,10 +2571,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.75" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.25" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2591,12 +2595,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2605,19 +2609,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.75" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.875" style="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.125" style="16" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" style="16" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11" style="16" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.25" style="16" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.125" style="16" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.625" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.875" style="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.75" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="16" width="10.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="16" width="11.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="16" width="10.125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="16" width="10.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="16" width="11.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="16" width="10.25" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="16" width="10.125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="16" width="10.5" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="11.625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="11.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -2695,12 +2699,12 @@
       <c r="M2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2709,15 +2713,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="7" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" style="7"/>
-    <col min="3" max="3" width="11" style="7" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="9" style="7"/>
-    <col min="7" max="7" width="14" style="7" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="21.75" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="7"/>
+    <col min="1" max="1" customWidth="true" style="7" width="18.75" collapsed="true"/>
+    <col min="2" max="2" style="7" width="9.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="7" width="11.0" collapsed="true"/>
+    <col min="4" max="6" style="7" width="9.0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="7" width="14.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="7" width="14.875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="7" width="15.625" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="7" width="21.75" collapsed="false"/>
+    <col min="11" max="16384" style="7" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2959,13 +2963,13 @@
       <c r="A15" s="28"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2974,11 +2978,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" style="18" collapsed="1"/>
-    <col min="3" max="3" width="13.875" style="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5" style="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9" style="18" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="18" width="19.25" collapsed="true"/>
+    <col min="2" max="2" style="18" width="9.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="13.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="11.5" collapsed="true"/>
+    <col min="5" max="16384" style="18" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -3016,7 +3020,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>34</v>
       </c>
@@ -3037,7 +3041,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>346</v>
       </c>
@@ -3058,7 +3062,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>347</v>
       </c>
@@ -3080,13 +3084,13 @@
       <c r="K4" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3095,8 +3099,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.25" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3144,13 +3148,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3159,9 +3163,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.75" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="61.125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.75" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="25.25" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="61.125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3324,13 +3328,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3339,7 +3343,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3378,12 +3382,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
@@ -3392,15 +3396,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -3917,7 +3921,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row ht="47.25" r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>242</v>
       </c>
@@ -4052,48 +4056,48 @@
       <c r="M22" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
@@ -4274,13 +4278,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AB75"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4289,32 +4293,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
@@ -4494,46 +4498,46 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="AV1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
       <selection activeCell="BH2" sqref="BH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4770,28 +4774,31 @@
       <c r="BF2" t="s">
         <v>69</v>
       </c>
+      <c r="BG2" t="s">
+        <v>387</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4816,13 +4823,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4852,24 +4859,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4910,6 +4917,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/resources/excels/NE.xlsx
+++ b/resources/excels/NE.xlsx
@@ -1,46 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="1" windowHeight="20280" windowWidth="35835" xWindow="0" yWindow="465"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginCredentials" r:id="rId1" sheetId="1"/>
-    <sheet name="Priority" r:id="rId2" sheetId="10"/>
-    <sheet name="Headers" r:id="rId3" sheetId="11"/>
-    <sheet name="NFTRTickets-Reg" r:id="rId4" sheetId="15"/>
-    <sheet name="All NFTR codes" r:id="rId5" sheetId="22"/>
-    <sheet name="NFTRTickets-San" r:id="rId6" sheetId="3"/>
-    <sheet name="FTRTickets-Reg" r:id="rId7" sheetId="14"/>
-    <sheet name="All FTR codes" r:id="rId8" sheetId="23"/>
-    <sheet name="FTRTickets-San" r:id="rId9" sheetId="2"/>
-    <sheet name="UserManagement" r:id="rId10" sheetId="13"/>
-    <sheet name="PinnedTags" r:id="rId11" sheetId="5"/>
-    <sheet name="Ticket State" r:id="rId12" sheetId="6"/>
-    <sheet name="TemplateManagement" r:id="rId13" sheetId="16"/>
-    <sheet name="Ticket Transfer Rules" r:id="rId14" sheetId="17"/>
-    <sheet name="Authentication Policy" r:id="rId15" sheetId="18"/>
-    <sheet name="Action Tagging" r:id="rId16" sheetId="19"/>
-    <sheet name="State Queue Mapping" r:id="rId17" sheetId="20"/>
-    <sheet name="Transfer To Queue" r:id="rId18" sheetId="21"/>
-    <sheet name="QuestionAnswerKey" r:id="rId19" sheetId="24"/>
+    <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
+    <sheet name="Priority" sheetId="10" r:id="rId2"/>
+    <sheet name="Headers" sheetId="11" r:id="rId3"/>
+    <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId4"/>
+    <sheet name="All NFTR codes" sheetId="22" r:id="rId5"/>
+    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId6"/>
+    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId7"/>
+    <sheet name="All FTR codes" sheetId="23" r:id="rId8"/>
+    <sheet name="FTRTickets-San" sheetId="2" r:id="rId9"/>
+    <sheet name="UserManagement" sheetId="13" r:id="rId10"/>
+    <sheet name="PinnedTags" sheetId="5" r:id="rId11"/>
+    <sheet name="Ticket State" sheetId="6" r:id="rId12"/>
+    <sheet name="TemplateManagement" sheetId="16" r:id="rId13"/>
+    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId14"/>
+    <sheet name="Authentication Policy" sheetId="18" r:id="rId15"/>
+    <sheet name="Action Tagging" sheetId="19" r:id="rId16"/>
+    <sheet name="State Queue Mapping" sheetId="20" r:id="rId17"/>
+    <sheet name="Transfer To Queue" sheetId="21" r:id="rId18"/>
+    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'FTRTickets-Reg'!$A$1:$F$1</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'FTRTickets-San'!$A$1:$E$126</definedName>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'NFTRTickets-Reg'!$A$1:$AB$1</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'NFTRTickets-San'!$A$1:$AB$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'FTRTickets-Reg'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'FTRTickets-San'!$A$1:$E$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'NFTRTickets-San'!$A$1:$AB$72</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="387">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1213,16 +1213,12 @@
   </si>
   <si>
     <t>FnF Indicator</t>
-  </si>
-  <si>
-    <t>010721000178</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1413,77 +1409,77 @@
     </border>
   </borders>
   <cellStyleXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="6" numFmtId="0" xfId="2"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="3"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="3"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="9" numFmtId="0" xfId="2"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="2"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="5"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="6">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="6">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal 4" xfId="3"/>
@@ -1502,7 +1498,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1515,7 +1511,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1534,12 +1530,12 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -1582,12 +1578,12 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -1630,12 +1626,12 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -1678,12 +1674,12 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -1716,10 +1712,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1754,7 +1750,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1806,7 +1802,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1917,21 +1913,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1948,7 +1944,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2000,14 +1996,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2016,11 +2012,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2158,13 +2154,13 @@
       <c r="Q5" s="6"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2173,9 +2169,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="1" max="1" width="20.375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2360,12 +2356,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2410,15 +2406,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule dxfId="0" priority="2" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -2430,9 +2426,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2490,13 +2486,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2505,8 +2501,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="15" width="30.875" collapsed="true"/>
-    <col min="2" max="16384" style="15" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="30.875" style="15" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2557,12 +2553,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2571,10 +2567,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="37.25" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.75" collapsed="true"/>
+    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.25" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2595,12 +2591,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2609,19 +2605,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.75" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="16" width="10.875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="16" width="11.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="16" width="10.125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="16" width="10.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="16" width="11.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="16" width="10.25" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="16" width="10.125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="16" width="10.5" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="16" width="11.625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="16" width="11.875" collapsed="true"/>
+    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.875" style="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5" style="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.125" style="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" style="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" style="16" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.25" style="16" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.125" style="16" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" style="16" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.625" style="16" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.875" style="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -2699,12 +2695,12 @@
       <c r="M2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2713,15 +2709,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="7" width="18.75" collapsed="true"/>
-    <col min="2" max="2" style="7" width="9.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="7" width="11.0" collapsed="true"/>
-    <col min="4" max="6" style="7" width="9.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="7" width="14.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="7" width="14.875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="7" width="15.625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="7" width="21.75" collapsed="false"/>
-    <col min="11" max="16384" style="7" width="9.0" collapsed="false"/>
+    <col min="1" max="1" width="18.75" style="7" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" style="7"/>
+    <col min="3" max="3" width="11" style="7" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="9" style="7"/>
+    <col min="7" max="7" width="14" style="7" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="21.75" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2963,13 +2959,13 @@
       <c r="A15" s="28"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2978,11 +2974,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="18" width="19.25" collapsed="true"/>
-    <col min="2" max="2" style="18" width="9.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="18" width="13.875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="18" width="11.5" collapsed="true"/>
-    <col min="5" max="16384" style="18" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="19.25" style="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" style="18" collapsed="1"/>
+    <col min="3" max="3" width="13.875" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9" style="18" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -3020,7 +3016,7 @@
         <v>173</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>34</v>
       </c>
@@ -3041,7 +3037,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row ht="15.75" r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>346</v>
       </c>
@@ -3062,7 +3058,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
     </row>
-    <row ht="15.75" r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>347</v>
       </c>
@@ -3084,13 +3080,13 @@
       <c r="K4" s="17"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3099,8 +3095,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.25" collapsed="true"/>
+    <col min="1" max="1" width="23.125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3148,13 +3144,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3163,9 +3159,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.75" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="25.25" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="61.125" collapsed="false"/>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="61.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3328,13 +3324,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3343,7 +3339,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3382,12 +3378,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
@@ -3396,15 +3392,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -3921,7 +3917,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row ht="47.25" r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>242</v>
       </c>
@@ -4056,48 +4052,48 @@
       <c r="M22" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18.95" r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
@@ -4278,13 +4274,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AB75"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4293,32 +4289,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18.95" r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
@@ -4498,46 +4494,46 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
+    <sheetView topLeftCell="AV1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="BH2" sqref="BH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18.95" r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4774,31 +4770,28 @@
       <c r="BF2" t="s">
         <v>69</v>
       </c>
-      <c r="BG2" t="s">
-        <v>387</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.125" collapsed="true"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4823,13 +4816,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4859,24 +4852,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4917,6 +4910,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/excels/NE.xlsx
+++ b/resources/excels/NE.xlsx
@@ -1,46 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="1" windowHeight="20280" windowWidth="35835" xWindow="0" yWindow="465"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginCredentials" r:id="rId1" sheetId="1"/>
-    <sheet name="Priority" r:id="rId2" sheetId="10"/>
-    <sheet name="Headers" r:id="rId3" sheetId="11"/>
-    <sheet name="NFTRTickets-Reg" r:id="rId4" sheetId="15"/>
-    <sheet name="All NFTR codes" r:id="rId5" sheetId="22"/>
-    <sheet name="NFTRTickets-San" r:id="rId6" sheetId="3"/>
-    <sheet name="FTRTickets-Reg" r:id="rId7" sheetId="14"/>
-    <sheet name="All FTR codes" r:id="rId8" sheetId="23"/>
-    <sheet name="FTRTickets-San" r:id="rId9" sheetId="2"/>
-    <sheet name="UserManagement" r:id="rId10" sheetId="13"/>
-    <sheet name="PinnedTags" r:id="rId11" sheetId="5"/>
-    <sheet name="Ticket State" r:id="rId12" sheetId="6"/>
-    <sheet name="TemplateManagement" r:id="rId13" sheetId="16"/>
-    <sheet name="Ticket Transfer Rules" r:id="rId14" sheetId="17"/>
-    <sheet name="Authentication Policy" r:id="rId15" sheetId="18"/>
-    <sheet name="Action Tagging" r:id="rId16" sheetId="19"/>
-    <sheet name="State Queue Mapping" r:id="rId17" sheetId="20"/>
-    <sheet name="Transfer To Queue" r:id="rId18" sheetId="21"/>
-    <sheet name="QuestionAnswerKey" r:id="rId19" sheetId="24"/>
+    <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
+    <sheet name="Priority" sheetId="10" r:id="rId2"/>
+    <sheet name="Headers" sheetId="11" r:id="rId3"/>
+    <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId4"/>
+    <sheet name="All NFTR codes" sheetId="22" r:id="rId5"/>
+    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId6"/>
+    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId7"/>
+    <sheet name="All FTR codes" sheetId="23" r:id="rId8"/>
+    <sheet name="FTRTickets-San" sheetId="2" r:id="rId9"/>
+    <sheet name="UserManagement" sheetId="13" r:id="rId10"/>
+    <sheet name="PinnedTags" sheetId="5" r:id="rId11"/>
+    <sheet name="Ticket State" sheetId="6" r:id="rId12"/>
+    <sheet name="TemplateManagement" sheetId="16" r:id="rId13"/>
+    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId14"/>
+    <sheet name="Authentication Policy" sheetId="18" r:id="rId15"/>
+    <sheet name="Action Tagging" sheetId="19" r:id="rId16"/>
+    <sheet name="State Queue Mapping" sheetId="20" r:id="rId17"/>
+    <sheet name="Transfer To Queue" sheetId="21" r:id="rId18"/>
+    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'FTRTickets-Reg'!$A$1:$F$1</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'FTRTickets-San'!$A$1:$E$126</definedName>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'NFTRTickets-Reg'!$A$1:$AB$1</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'NFTRTickets-San'!$A$1:$AB$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'FTRTickets-Reg'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'FTRTickets-San'!$A$1:$E$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'NFTRTickets-San'!$A$1:$AB$72</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="411">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1216,14 +1216,82 @@
   </si>
   <si>
     <t>010721000178</t>
+  </si>
+  <si>
+    <t>ADD ON BUNDLE USAGE</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>ACCOUNT INFORMATION DETAIL</t>
+  </si>
+  <si>
+    <t>Date &amp; time</t>
+  </si>
+  <si>
+    <t>Reference No.</t>
+  </si>
+  <si>
+    <t>Bill Amount</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>LINKED MSISDN</t>
+  </si>
+  <si>
+    <t>MSISDN</t>
+  </si>
+  <si>
+    <t>SIM Number</t>
+  </si>
+  <si>
+    <t>GSM Service Activation Date</t>
+  </si>
+  <si>
+    <t>Line Type</t>
+  </si>
+  <si>
+    <t>Payment Level</t>
+  </si>
+  <si>
+    <t>GSM Status</t>
+  </si>
+  <si>
+    <t>Current Usage Limit</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>CUG</t>
+  </si>
+  <si>
+    <t>DND</t>
+  </si>
+  <si>
+    <t>Security Deposit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1301,6 +1369,11 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF1C293B"/>
+      <name val="Tondo-regular"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1340,7 +1413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1411,79 +1484,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+  <cellXfs count="41">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="6" numFmtId="0" xfId="2"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="3"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="3"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="9" numFmtId="0" xfId="2"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="2"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="5"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="6">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="6">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal 4" xfId="3"/>
@@ -1502,7 +1596,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1515,7 +1609,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1534,12 +1628,12 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -1582,12 +1676,12 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -1630,12 +1724,12 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -1678,12 +1772,12 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -1716,10 +1810,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1754,7 +1848,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1806,7 +1900,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1917,21 +2011,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1948,7 +2042,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2000,30 +2094,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2170,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>2390495</v>
       </c>
@@ -2103,7 +2197,7 @@
       </c>
       <c r="Q2" s="6"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2388192</v>
       </c>
@@ -2121,7 +2215,7 @@
       </c>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>2390495</v>
       </c>
@@ -2139,7 +2233,7 @@
       </c>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>2394650</v>
       </c>
@@ -2158,27 +2252,27 @@
       <c r="Q5" s="6"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="1" max="1" width="20.375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
         <v>39</v>
       </c>
@@ -2189,7 +2283,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="33" t="s">
         <v>357</v>
       </c>
@@ -2200,7 +2294,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="33" t="s">
         <v>42</v>
       </c>
@@ -2211,7 +2305,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="33" t="s">
         <v>43</v>
       </c>
@@ -2222,7 +2316,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="33" t="s">
         <v>44</v>
       </c>
@@ -2233,7 +2327,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="33" t="s">
         <v>358</v>
       </c>
@@ -2244,7 +2338,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="33" t="s">
         <v>359</v>
       </c>
@@ -2255,7 +2349,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" s="33" t="s">
         <v>333</v>
       </c>
@@ -2263,7 +2357,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="B9" s="33" t="s">
         <v>334</v>
       </c>
@@ -2271,7 +2365,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" s="33" t="s">
         <v>335</v>
       </c>
@@ -2279,7 +2373,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" s="33" t="s">
         <v>336</v>
       </c>
@@ -2287,7 +2381,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="B12" s="33" t="s">
         <v>337</v>
       </c>
@@ -2295,7 +2389,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="B13" s="33" t="s">
         <v>338</v>
       </c>
@@ -2303,7 +2397,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="B14" s="33" t="s">
         <v>339</v>
       </c>
@@ -2311,7 +2405,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="B15" s="33" t="s">
         <v>340</v>
       </c>
@@ -2319,7 +2413,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="B16" s="33" t="s">
         <v>341</v>
       </c>
@@ -2327,7 +2421,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="33" t="s">
         <v>342</v>
       </c>
@@ -2335,7 +2429,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" s="33" t="s">
         <v>343</v>
       </c>
@@ -2343,7 +2437,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" s="33" t="s">
         <v>344</v>
       </c>
@@ -2351,7 +2445,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20" s="33" t="s">
         <v>345</v>
       </c>
@@ -2360,21 +2454,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>45</v>
       </c>
@@ -2391,7 +2485,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
         <v>67</v>
       </c>
@@ -2410,15 +2504,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule dxfId="0" priority="2" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -2428,14 +2522,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>57</v>
       </c>
@@ -2446,7 +2540,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -2454,7 +2548,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -2462,7 +2556,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -2470,7 +2564,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2478,7 +2572,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -2490,26 +2584,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="15" width="30.875" collapsed="true"/>
-    <col min="2" max="16384" style="15" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="30.875" style="15" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9" style="15" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
         <v>118</v>
       </c>
@@ -2517,7 +2611,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="15" t="s">
         <v>120</v>
       </c>
@@ -2525,7 +2619,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
         <v>122</v>
       </c>
@@ -2533,7 +2627,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="15" t="s">
         <v>124</v>
       </c>
@@ -2541,43 +2635,43 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="37.25" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.75" collapsed="true"/>
+    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.25" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>128</v>
       </c>
@@ -2595,36 +2689,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.75" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="16" width="10.875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="16" width="11.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="16" width="10.125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="16" width="10.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="16" width="11.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="16" width="10.25" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="16" width="10.125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="16" width="10.5" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="16" width="11.625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="16" width="11.875" collapsed="true"/>
+    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.875" style="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5" style="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.125" style="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" style="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" style="16" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.25" style="16" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.125" style="16" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" style="16" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.625" style="16" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.875" style="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>152</v>
       </c>
@@ -2665,7 +2759,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>374</v>
       </c>
@@ -2699,32 +2793,32 @@
       <c r="M2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="7" width="18.75" collapsed="true"/>
-    <col min="2" max="2" style="7" width="9.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="7" width="11.0" collapsed="true"/>
-    <col min="4" max="6" style="7" width="9.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="7" width="14.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="7" width="14.875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="7" width="15.625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="7" width="21.75" collapsed="false"/>
-    <col min="11" max="16384" style="7" width="9.0" collapsed="false"/>
+    <col min="1" max="1" width="18.75" style="7" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" style="7"/>
+    <col min="3" max="3" width="11" style="7" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="9" style="7"/>
+    <col min="7" max="7" width="14" style="7" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="21.75" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="9" t="s">
         <v>153</v>
       </c>
@@ -2756,7 +2850,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
         <v>160</v>
       </c>
@@ -2776,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="9" t="s">
         <v>264</v>
       </c>
@@ -2796,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
         <v>266</v>
       </c>
@@ -2812,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="9" t="s">
         <v>267</v>
       </c>
@@ -2828,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="9" t="s">
         <v>268</v>
       </c>
@@ -2844,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="9" t="s">
         <v>269</v>
       </c>
@@ -2860,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="9" t="s">
         <v>270</v>
       </c>
@@ -2876,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="9" t="s">
         <v>271</v>
       </c>
@@ -2892,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="9" t="s">
         <v>272</v>
       </c>
@@ -2908,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="9" t="s">
         <v>273</v>
       </c>
@@ -2924,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="9" t="s">
         <v>274</v>
       </c>
@@ -2940,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="9" t="s">
         <v>275</v>
       </c>
@@ -2956,36 +3050,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="28"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="28"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="18" width="19.25" collapsed="true"/>
-    <col min="2" max="2" style="18" width="9.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="18" width="13.875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="18" width="11.5" collapsed="true"/>
-    <col min="5" max="16384" style="18" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="19.25" style="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" style="18" collapsed="1"/>
+    <col min="3" max="3" width="13.875" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9" style="18" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="17" t="s">
         <v>163</v>
       </c>
@@ -3020,7 +3114,7 @@
         <v>173</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="33" t="s">
         <v>34</v>
       </c>
@@ -3041,7 +3135,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row ht="15.75" r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="33" t="s">
         <v>346</v>
       </c>
@@ -3062,7 +3156,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
     </row>
-    <row ht="15.75" r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="33" t="s">
         <v>347</v>
       </c>
@@ -3084,26 +3178,26 @@
       <c r="K4" s="17"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.25" collapsed="true"/>
+    <col min="1" max="1" width="23.125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>131</v>
       </c>
@@ -3114,7 +3208,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="33" t="s">
         <v>34</v>
       </c>
@@ -3125,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="33" t="s">
         <v>346</v>
       </c>
@@ -3136,7 +3230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="33" t="s">
         <v>347</v>
       </c>
@@ -3148,27 +3242,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.75" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="25.25" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="61.125" collapsed="false"/>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="61.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>278</v>
       </c>
@@ -3179,7 +3273,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>279</v>
       </c>
@@ -3190,7 +3284,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>283</v>
       </c>
@@ -3201,7 +3295,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
@@ -3212,7 +3306,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>288</v>
       </c>
@@ -3223,7 +3317,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>291</v>
       </c>
@@ -3232,7 +3326,7 @@
       </c>
       <c r="C6" s="31"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>293</v>
       </c>
@@ -3243,7 +3337,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>296</v>
       </c>
@@ -3254,7 +3348,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>310</v>
       </c>
@@ -3265,7 +3359,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>311</v>
       </c>
@@ -3276,7 +3370,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>312</v>
       </c>
@@ -3287,7 +3381,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>314</v>
       </c>
@@ -3298,7 +3392,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>315</v>
       </c>
@@ -3307,7 +3401,7 @@
       </c>
       <c r="C13" s="31"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>313</v>
       </c>
@@ -3316,7 +3410,7 @@
       </c>
       <c r="C14" s="31"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>316</v>
       </c>
@@ -3328,86 +3422,86 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>76</v>
       </c>
@@ -3448,7 +3542,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -3475,7 +3569,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>88</v>
       </c>
@@ -3502,7 +3596,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>92</v>
       </c>
@@ -3529,7 +3623,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
         <v>94</v>
       </c>
@@ -3562,7 +3656,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
         <v>100</v>
       </c>
@@ -3587,7 +3681,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
         <v>102</v>
       </c>
@@ -3612,7 +3706,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
         <v>104</v>
       </c>
@@ -3639,7 +3733,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
         <v>107</v>
       </c>
@@ -3666,7 +3760,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="23" t="s">
         <v>191</v>
       </c>
@@ -3693,7 +3787,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="23" t="s">
         <v>196</v>
       </c>
@@ -3720,7 +3814,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="23" t="s">
         <v>202</v>
       </c>
@@ -3751,7 +3845,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
         <v>210</v>
       </c>
@@ -3776,7 +3870,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="23" t="s">
         <v>215</v>
       </c>
@@ -3813,7 +3907,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="23" t="s">
         <v>220</v>
       </c>
@@ -3844,7 +3938,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="23" t="s">
         <v>223</v>
       </c>
@@ -3869,7 +3963,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="23" t="s">
         <v>227</v>
       </c>
@@ -3894,7 +3988,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="23" t="s">
         <v>237</v>
       </c>
@@ -3921,7 +4015,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row ht="47.25" r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="47.25">
       <c r="A19" s="23" t="s">
         <v>242</v>
       </c>
@@ -3962,7 +4056,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="23" t="s">
         <v>248</v>
       </c>
@@ -3991,7 +4085,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
         <v>375</v>
       </c>
@@ -4026,7 +4120,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
         <v>383</v>
       </c>
@@ -4055,49 +4149,133 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
+    <row r="23" spans="1:13" ht="16.5">
+      <c r="A23" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="L25" s="40" t="s">
+        <v>410</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18.95" r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="18.95" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
@@ -4278,47 +4456,47 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AB75"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18.95" r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="18.95" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
@@ -4498,46 +4676,46 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
+    <sheetView topLeftCell="AV1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="BH2" sqref="BH2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18.95" r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="18.95" customHeight="1">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4716,7 +4894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59">
       <c r="A2" s="34" t="s">
         <v>365</v>
       </c>
@@ -4779,29 +4957,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.125" collapsed="true"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
@@ -4823,22 +5001,22 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
@@ -4859,27 +5037,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -4899,7 +5077,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="34" t="s">
         <v>360</v>
       </c>
@@ -4917,6 +5095,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/excels/NE.xlsx
+++ b/resources/excels/NE.xlsx
@@ -1,42 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809DBBA8-CDEE-A644-BDF0-699DA57C5643}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20280" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Priority" sheetId="10" r:id="rId2"/>
     <sheet name="Headers" sheetId="11" r:id="rId3"/>
-    <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId4"/>
-    <sheet name="All NFTR codes" sheetId="22" r:id="rId5"/>
-    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId6"/>
-    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId7"/>
-    <sheet name="All FTR codes" sheetId="23" r:id="rId8"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId9"/>
-    <sheet name="UserManagement" sheetId="13" r:id="rId10"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId11"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId12"/>
-    <sheet name="TemplateManagement" sheetId="16" r:id="rId13"/>
-    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId14"/>
-    <sheet name="Authentication Policy" sheetId="18" r:id="rId15"/>
-    <sheet name="Action Tagging" sheetId="19" r:id="rId16"/>
-    <sheet name="State Queue Mapping" sheetId="20" r:id="rId17"/>
-    <sheet name="Transfer To Queue" sheetId="21" r:id="rId18"/>
-    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId19"/>
+    <sheet name="OpenAPILoginSheet" sheetId="25" r:id="rId4"/>
+    <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId5"/>
+    <sheet name="All NFTR codes" sheetId="22" r:id="rId6"/>
+    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId7"/>
+    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId8"/>
+    <sheet name="All FTR codes" sheetId="23" r:id="rId9"/>
+    <sheet name="FTRTickets-San" sheetId="2" r:id="rId10"/>
+    <sheet name="UserManagement" sheetId="13" r:id="rId11"/>
+    <sheet name="PinnedTags" sheetId="5" r:id="rId12"/>
+    <sheet name="Ticket State" sheetId="6" r:id="rId13"/>
+    <sheet name="TemplateManagement" sheetId="16" r:id="rId14"/>
+    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId15"/>
+    <sheet name="Authentication Policy" sheetId="18" r:id="rId16"/>
+    <sheet name="Action Tagging" sheetId="19" r:id="rId17"/>
+    <sheet name="State Queue Mapping" sheetId="20" r:id="rId18"/>
+    <sheet name="Transfer To Queue" sheetId="21" r:id="rId19"/>
+    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'FTRTickets-Reg'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'FTRTickets-San'!$A$1:$E$126</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'NFTRTickets-San'!$A$1:$AB$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'FTRTickets-Reg'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'FTRTickets-San'!$A$1:$E$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'NFTRTickets-San'!$A$1:$AB$72</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="418">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1285,13 +1287,34 @@
   </si>
   <si>
     <t>Security Deposit</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>API Type</t>
+  </si>
+  <si>
+    <t>Rest API</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtuPQ==</t>
+  </si>
+  <si>
+    <t>OpenAPIValidToken</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtu</t>
+  </si>
+  <si>
+    <t>OpenApiInvalidToken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1373,6 +1396,13 @@
       <sz val="13"/>
       <color rgb="FF1C293B"/>
       <name val="Tondo-regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1514,7 +1544,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1574,15 +1604,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 5" xfId="5"/>
-    <cellStyle name="Normal 6" xfId="6"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1628,7 +1661,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1709,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +1757,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1772,7 +1805,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,20 +2134,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -2258,16 +2291,74 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21.5" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="22.5" customWidth="1" collapsed="1"/>
   </cols>
@@ -2458,15 +2549,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
@@ -2511,8 +2602,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -2522,10 +2613,10 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -2589,17 +2680,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="30.83203125" style="15" customWidth="1" collapsed="1"/>
     <col min="2" max="16384" width="9" style="15" collapsed="1"/>
   </cols>
   <sheetData>
@@ -2655,20 +2746,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.75" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2693,32 +2784,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.75" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.875" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.83203125" style="16" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.125" style="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.1640625" style="16" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="10" style="16" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="11" style="16" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.25" style="16" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.125" style="16" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="10.1640625" style="16" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="10.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.625" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.875" style="16" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.6640625" style="16" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.83203125" style="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="17">
       <c r="A1" t="s">
         <v>152</v>
       </c>
@@ -2797,24 +2887,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="7" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.6640625" style="7" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9" style="7"/>
     <col min="3" max="3" width="11" style="7" customWidth="1" collapsed="1"/>
     <col min="4" max="6" width="9" style="7"/>
     <col min="7" max="7" width="14" style="7" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="21.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" style="7" customWidth="1"/>
     <col min="11" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -3062,19 +3152,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="18" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.1640625" style="18" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9" style="18" collapsed="1"/>
-    <col min="3" max="3" width="13.875" style="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.83203125" style="18" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11.5" style="18" customWidth="1" collapsed="1"/>
     <col min="5" max="16384" width="9" style="18" collapsed="1"/>
   </cols>
@@ -3114,7 +3204,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="33" t="s">
         <v>34</v>
       </c>
@@ -3135,7 +3225,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75">
+    <row r="3" spans="1:11" ht="16">
       <c r="A3" s="33" t="s">
         <v>346</v>
       </c>
@@ -3156,7 +3246,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
+    <row r="4" spans="1:11" ht="16">
       <c r="A4" s="33" t="s">
         <v>347</v>
       </c>
@@ -3183,18 +3273,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3239,186 +3329,6 @@
       </c>
       <c r="C4" s="25" t="b">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="26.75" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="61.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C6" s="31"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C13" s="31"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C14" s="31"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3428,14 +3338,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
   </cols>
@@ -3480,24 +3390,204 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="61.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" s="31"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C13" s="31"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -3542,7 +3632,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="17">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -3596,7 +3686,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="17">
       <c r="A4" s="3" t="s">
         <v>92</v>
       </c>
@@ -3870,7 +3960,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="34">
       <c r="A14" s="23" t="s">
         <v>215</v>
       </c>
@@ -4015,7 +4105,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="47.25">
+    <row r="19" spans="1:13" ht="51">
       <c r="A19" s="23" t="s">
         <v>242</v>
       </c>
@@ -4149,7 +4239,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5">
+    <row r="23" spans="1:13" ht="17">
       <c r="A23" s="38" t="s">
         <v>388</v>
       </c>
@@ -4241,41 +4331,90 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6522088-F085-844C-96E3-36E33E4A093D}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="49.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17">
+      <c r="A1" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6">
+      <c r="A3" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6">
+      <c r="A4" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>417</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18.95" customHeight="1">
+    <row r="1" spans="1:59" ht="19" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
@@ -4455,48 +4594,48 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB75"/>
+  <autoFilter ref="A1:AB75" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BG1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18.95" customHeight="1">
+    <row r="1" spans="1:59" ht="19" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
@@ -4680,42 +4819,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView topLeftCell="AV1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="BH2" sqref="BH2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18.95" customHeight="1">
+    <row r="1" spans="1:59" ht="19" customHeight="1">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4962,21 +5101,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5000,21 +5139,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
@@ -5039,62 +5178,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>364</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/excels/NE.xlsx
+++ b/resources/excels/NE.xlsx
@@ -8,37 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809DBBA8-CDEE-A644-BDF0-699DA57C5643}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528B3B17-2811-F242-97E8-C9783A47F069}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20280" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Priority" sheetId="10" r:id="rId2"/>
     <sheet name="Headers" sheetId="11" r:id="rId3"/>
     <sheet name="OpenAPILoginSheet" sheetId="25" r:id="rId4"/>
-    <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId5"/>
-    <sheet name="All NFTR codes" sheetId="22" r:id="rId6"/>
-    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId7"/>
-    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId8"/>
-    <sheet name="All FTR codes" sheetId="23" r:id="rId9"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId10"/>
-    <sheet name="UserManagement" sheetId="13" r:id="rId11"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId12"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId13"/>
-    <sheet name="TemplateManagement" sheetId="16" r:id="rId14"/>
-    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId15"/>
-    <sheet name="Authentication Policy" sheetId="18" r:id="rId16"/>
-    <sheet name="Action Tagging" sheetId="19" r:id="rId17"/>
-    <sheet name="State Queue Mapping" sheetId="20" r:id="rId18"/>
-    <sheet name="Transfer To Queue" sheetId="21" r:id="rId19"/>
-    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId20"/>
+    <sheet name="OpenAPIClientConfig" sheetId="26" r:id="rId5"/>
+    <sheet name="ClientConfig" sheetId="27" r:id="rId6"/>
+    <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId7"/>
+    <sheet name="All NFTR codes" sheetId="22" r:id="rId8"/>
+    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId9"/>
+    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId10"/>
+    <sheet name="All FTR codes" sheetId="23" r:id="rId11"/>
+    <sheet name="FTRTickets-San" sheetId="2" r:id="rId12"/>
+    <sheet name="UserManagement" sheetId="13" r:id="rId13"/>
+    <sheet name="PinnedTags" sheetId="5" r:id="rId14"/>
+    <sheet name="Ticket State" sheetId="6" r:id="rId15"/>
+    <sheet name="TemplateManagement" sheetId="16" r:id="rId16"/>
+    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId17"/>
+    <sheet name="Authentication Policy" sheetId="18" r:id="rId18"/>
+    <sheet name="Action Tagging" sheetId="19" r:id="rId19"/>
+    <sheet name="State Queue Mapping" sheetId="20" r:id="rId20"/>
+    <sheet name="Transfer To Queue" sheetId="21" r:id="rId21"/>
+    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'FTRTickets-Reg'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'FTRTickets-San'!$A$1:$E$126</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'NFTRTickets-San'!$A$1:$AB$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'FTRTickets-Reg'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'FTRTickets-San'!$A$1:$E$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'NFTRTickets-San'!$A$1:$AB$72</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="423">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1308,6 +1310,21 @@
   </si>
   <si>
     <t>OpenApiInvalidToken</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>customerMsisdn</t>
+  </si>
+  <si>
+    <t>First Category Level</t>
+  </si>
+  <si>
+    <t>Last Category Level</t>
+  </si>
+  <si>
+    <t>Service Complaint</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1561,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1607,6 +1624,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2291,6 +2309,85 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2348,7 +2445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -2549,7 +2646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2602,7 +2699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -2680,7 +2777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -2746,7 +2843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -2784,7 +2881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -2887,7 +2984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -3152,7 +3249,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -3273,7 +3423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -3337,60 +3487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -4334,7 +4431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6522088-F085-844C-96E3-36E33E4A093D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -4358,7 +4455,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6">
+    <row r="3" spans="1:2" ht="187">
       <c r="A3" s="41" t="s">
         <v>414</v>
       </c>
@@ -4366,7 +4463,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6">
+    <row r="4" spans="1:2" ht="187">
       <c r="A4" s="41" t="s">
         <v>416</v>
       </c>
@@ -4380,6 +4477,86 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529F4AE2-2047-C04B-A18A-5FD93AC7B345}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="42">
+        <v>767240995</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243D050F-0C15-D34B-82E8-4F2D9AB9AEFA}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="42">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42">
+        <v>5</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG1"/>
   <sheetViews>
@@ -4600,7 +4777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BG1"/>
   <sheetViews>
@@ -4819,7 +4996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BG2"/>
   <sheetViews>
@@ -5099,83 +5276,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/excels/NE.xlsx
+++ b/resources/excels/NE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528B3B17-2811-F242-97E8-C9783A47F069}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468E45DE-175E-0E4C-8F20-7980C0A2A8A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -19,28 +19,29 @@
     <sheet name="OpenAPILoginSheet" sheetId="25" r:id="rId4"/>
     <sheet name="OpenAPIClientConfig" sheetId="26" r:id="rId5"/>
     <sheet name="ClientConfig" sheetId="27" r:id="rId6"/>
-    <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId7"/>
-    <sheet name="All NFTR codes" sheetId="22" r:id="rId8"/>
-    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId9"/>
-    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId10"/>
-    <sheet name="All FTR codes" sheetId="23" r:id="rId11"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId12"/>
-    <sheet name="UserManagement" sheetId="13" r:id="rId13"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId14"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId15"/>
-    <sheet name="TemplateManagement" sheetId="16" r:id="rId16"/>
-    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId17"/>
-    <sheet name="Authentication Policy" sheetId="18" r:id="rId18"/>
-    <sheet name="Action Tagging" sheetId="19" r:id="rId19"/>
-    <sheet name="State Queue Mapping" sheetId="20" r:id="rId20"/>
-    <sheet name="Transfer To Queue" sheetId="21" r:id="rId21"/>
-    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId22"/>
+    <sheet name="AgentDetails" sheetId="28" r:id="rId7"/>
+    <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId8"/>
+    <sheet name="All NFTR codes" sheetId="22" r:id="rId9"/>
+    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId10"/>
+    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId11"/>
+    <sheet name="All FTR codes" sheetId="23" r:id="rId12"/>
+    <sheet name="FTRTickets-San" sheetId="2" r:id="rId13"/>
+    <sheet name="UserManagement" sheetId="13" r:id="rId14"/>
+    <sheet name="PinnedTags" sheetId="5" r:id="rId15"/>
+    <sheet name="Ticket State" sheetId="6" r:id="rId16"/>
+    <sheet name="TemplateManagement" sheetId="16" r:id="rId17"/>
+    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId18"/>
+    <sheet name="Authentication Policy" sheetId="18" r:id="rId19"/>
+    <sheet name="Action Tagging" sheetId="19" r:id="rId20"/>
+    <sheet name="State Queue Mapping" sheetId="20" r:id="rId21"/>
+    <sheet name="Transfer To Queue" sheetId="21" r:id="rId22"/>
+    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'FTRTickets-Reg'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'FTRTickets-San'!$A$1:$E$126</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'NFTRTickets-San'!$A$1:$AB$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'FTRTickets-Reg'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'FTRTickets-San'!$A$1:$E$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'NFTRTickets-San'!$A$1:$AB$72</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="427">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1325,6 +1326,18 @@
   </si>
   <si>
     <t>Service Complaint</t>
+  </si>
+  <si>
+    <t>AgentId</t>
+  </si>
+  <si>
+    <t>AgentAuuid</t>
+  </si>
+  <si>
+    <t>AgentName</t>
+  </si>
+  <si>
+    <t>Ashwani Rao</t>
   </si>
 </sst>
 </file>
@@ -2309,6 +2322,288 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:BG2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AV1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BH2" sqref="BH2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:59" ht="19" customHeight="1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59">
+      <c r="A2" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV2" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="AW2">
+        <v>9</v>
+      </c>
+      <c r="BD2">
+        <v>9</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>346</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -2352,7 +2647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -2387,7 +2682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2445,7 +2740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -2646,7 +2941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2699,7 +2994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -2777,7 +3072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -2843,7 +3138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -2881,7 +3176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -2984,7 +3279,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -3249,60 +3597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -3423,7 +3718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -3487,7 +3782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -4518,7 +4813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243D050F-0C15-D34B-82E8-4F2D9AB9AEFA}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -4557,6 +4852,40 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DCD8D8-14CE-7741-AF8A-8EC958C7964A}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2">
+        <v>13221514</v>
+      </c>
+      <c r="C2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG1"/>
   <sheetViews>
@@ -4777,7 +5106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BG1"/>
   <sheetViews>
@@ -4994,286 +5323,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:BG2"/>
-  <sheetViews>
-    <sheetView topLeftCell="AV1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="BH2" sqref="BH2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:59" ht="19" customHeight="1">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59">
-      <c r="A2" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV2" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="AW2">
-        <v>9</v>
-      </c>
-      <c r="BD2">
-        <v>9</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>346</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/resources/excels/NE.xlsx
+++ b/resources/excels/NE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468E45DE-175E-0E4C-8F20-7980C0A2A8A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E39604C-3284-DE45-9296-719A1027F71E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="437">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1319,15 +1319,6 @@
     <t>customerMsisdn</t>
   </si>
   <si>
-    <t>First Category Level</t>
-  </si>
-  <si>
-    <t>Last Category Level</t>
-  </si>
-  <si>
-    <t>Service Complaint</t>
-  </si>
-  <si>
     <t>AgentId</t>
   </si>
   <si>
@@ -1338,6 +1329,45 @@
   </si>
   <si>
     <t>Ashwani Rao</t>
+  </si>
+  <si>
+    <t>First level Category</t>
+  </si>
+  <si>
+    <t>Last Level Category</t>
+  </si>
+  <si>
+    <t>Search able</t>
+  </si>
+  <si>
+    <t>isActive</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Deactivate</t>
+  </si>
+  <si>
+    <t>userMsisdn</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>accountId</t>
+  </si>
+  <si>
+    <t>msisdn</t>
+  </si>
+  <si>
+    <t>invalidMsisdn</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1604,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1638,6 +1668,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4811,10 +4842,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243D050F-0C15-D34B-82E8-4F2D9AB9AEFA}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4824,18 +4855,33 @@
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" s="42" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C1" s="42" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>427</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>428</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="42">
         <v>1</v>
       </c>
@@ -4843,8 +4889,81 @@
         <v>5</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>422</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="42">
+        <v>1</v>
+      </c>
+      <c r="B4" s="42">
+        <v>5</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="G4" s="42">
+        <v>97777707</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42" t="s">
+        <v>436</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42">
+        <v>123</v>
+      </c>
+      <c r="H5" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4855,7 +4974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DCD8D8-14CE-7741-AF8A-8EC958C7964A}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -4863,13 +4982,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4877,7 +4996,7 @@
         <v>13221514</v>
       </c>
       <c r="C2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/NE.xlsx
+++ b/resources/excels/NE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401002/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E39604C-3284-DE45-9296-719A1027F71E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3743405-5B03-CD4D-8720-AC85A90FCFD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="12" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -3367,8 +3367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -4844,7 +4844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243D050F-0C15-D34B-82E8-4F2D9AB9AEFA}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H5"/>
     </sheetView>
   </sheetViews>

--- a/resources/excels/NE.xlsx
+++ b/resources/excels/NE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401002/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3743405-5B03-CD4D-8720-AC85A90FCFD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DB2997-A680-B34E-9F51-C23ABFD09CCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="12" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="13" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="440">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1368,13 +1368,22 @@
   </si>
   <si>
     <t>invalidMsisdn</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months</t>
+  </si>
+  <si>
+    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1463,6 +1472,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1604,7 +1619,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1658,9 +1673,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1669,6 +1681,17 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3209,10 +3232,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3231,7 +3254,7 @@
     <col min="13" max="13" width="11.83203125" style="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17">
+    <row r="1" spans="1:15" ht="17">
       <c r="A1" t="s">
         <v>152</v>
       </c>
@@ -3271,8 +3294,9 @@
       <c r="M1" s="16" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:15" ht="144">
       <c r="A2" t="s">
         <v>374</v>
       </c>
@@ -3282,28 +3306,29 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
+      <c r="J2" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3367,7 +3392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -3815,10 +3840,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3986,6 +4011,15 @@
       <c r="C15" s="3" t="s">
         <v>309</v>
       </c>
+    </row>
+    <row r="16" spans="1:3" ht="34">
+      <c r="A16" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="C16" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4663,7 +4697,7 @@
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" ht="17">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="37" t="s">
         <v>388</v>
       </c>
       <c r="B23" s="32" t="s">
@@ -4683,7 +4717,7 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="38" t="s">
         <v>393</v>
       </c>
       <c r="B24" s="32" t="s">
@@ -4709,7 +4743,7 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="38" t="s">
         <v>399</v>
       </c>
       <c r="B25" s="32" t="s">
@@ -4727,22 +4761,22 @@
       <c r="F25" s="32" t="s">
         <v>404</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="I25" s="40" t="s">
+      <c r="I25" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="J25" s="40" t="s">
+      <c r="J25" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="K25" s="40" t="s">
+      <c r="K25" s="39" t="s">
         <v>409</v>
       </c>
-      <c r="L25" s="40" t="s">
+      <c r="L25" s="39" t="s">
         <v>410</v>
       </c>
     </row>
@@ -4768,32 +4802,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="187">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>414</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="187">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>416</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>417</v>
       </c>
     </row>
@@ -4816,22 +4850,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="42">
+      <c r="A3" s="41">
         <v>767240995</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>419</v>
       </c>
     </row>
@@ -4856,114 +4890,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>425</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>418</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>429</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="41" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="42">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="41">
         <v>5</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="42" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="42" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="42">
+      <c r="A4" s="41">
         <v>1</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="41">
         <v>5</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>435</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="41">
         <v>97777707</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="42" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41" t="s">
         <v>436</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41">
         <v>123</v>
       </c>
-      <c r="H5" s="42"/>
+      <c r="H5" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/excels/NE.xlsx
+++ b/resources/excels/NE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DB2997-A680-B34E-9F51-C23ABFD09CCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC7671A-7114-024E-9BE2-92882E65B669}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="13" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="440">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -646,19 +646,7 @@
     <t>Loan Details</t>
   </si>
   <si>
-    <t>Total Loan Eligibility</t>
-  </si>
-  <si>
-    <t>Number of Loan Taken</t>
-  </si>
-  <si>
     <t>Total Loan Amount</t>
-  </si>
-  <si>
-    <t>Total Loan Paid</t>
-  </si>
-  <si>
-    <t>Total Current Outstanding</t>
   </si>
   <si>
     <t>Loan History</t>
@@ -1377,13 +1365,25 @@
   </si>
   <si>
     <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
+  </si>
+  <si>
+    <t>Loan ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Loan Eligibility </t>
+  </si>
+  <si>
+    <t>Count Of Events</t>
+  </si>
+  <si>
+    <t>Loan Paid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1479,6 +1479,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1518,7 +1525,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1607,6 +1614,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1619,7 +1639,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1692,6 +1712,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2282,10 +2305,10 @@
         <v>115</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2293,7 +2316,7 @@
         <v>2390495</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -2305,10 +2328,10 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P2">
         <v>97777707</v>
@@ -2320,7 +2343,7 @@
         <v>2388192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2338,7 +2361,7 @@
         <v>2390495</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
         <v>75</v>
@@ -2356,7 +2379,7 @@
         <v>2394650</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C5" t="s">
         <v>113</v>
@@ -2591,25 +2614,25 @@
     </row>
     <row r="2" spans="1:59">
       <c r="A2" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="F2" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="D2" s="34" t="s">
+      <c r="G2" s="34" t="s">
         <v>368</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>372</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>30</v>
@@ -2624,16 +2647,16 @@
         <v>30</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N2" s="36" t="s">
         <v>30</v>
       </c>
       <c r="AV2" s="34" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AW2">
         <v>9</v>
@@ -2642,13 +2665,13 @@
         <v>9</v>
       </c>
       <c r="BE2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="BF2" t="s">
         <v>69</v>
       </c>
       <c r="BG2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -2774,19 +2797,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>360</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -2822,10 +2845,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="33" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>34</v>
@@ -2836,10 +2859,10 @@
         <v>42</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2847,10 +2870,10 @@
         <v>43</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2858,77 +2881,77 @@
         <v>44</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="33" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="33" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="33" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="33" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="33" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="33" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="33" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="33" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>35</v>
@@ -2936,7 +2959,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="33" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>36</v>
@@ -2944,50 +2967,50 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="33" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="33" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="33" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="33" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="33" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="33" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3019,7 +3042,7 @@
         <v>48</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3298,7 +3321,7 @@
     </row>
     <row r="2" spans="1:15" ht="144">
       <c r="A2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s">
         <v>139</v>
@@ -3325,7 +3348,7 @@
         <v>135</v>
       </c>
       <c r="J2" s="45" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
@@ -3432,13 +3455,13 @@
         <v>159</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3463,7 +3486,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -3472,10 +3495,10 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J3" s="9" t="b">
         <v>0</v>
@@ -3483,7 +3506,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -3499,7 +3522,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -3515,7 +3538,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -3531,7 +3554,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -3547,7 +3570,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -3563,7 +3586,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -3579,7 +3602,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="9" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3595,7 +3618,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3611,7 +3634,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3627,7 +3650,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3728,7 +3751,7 @@
     </row>
     <row r="3" spans="1:11" ht="16">
       <c r="A3" s="33" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>49</v>
@@ -3749,7 +3772,7 @@
     </row>
     <row r="4" spans="1:11" ht="16">
       <c r="A4" s="33" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>49</v>
@@ -3796,7 +3819,7 @@
         <v>132</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3804,7 +3827,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C2" s="25" t="b">
         <v>1</v>
@@ -3812,7 +3835,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="33" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>34</v>
@@ -3823,10 +3846,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="33" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C4" s="25" t="b">
         <v>1</v>
@@ -3842,7 +3865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3855,35 +3878,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3891,133 +3914,133 @@
         <v>70</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C6" s="31"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C13" s="31"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34">
       <c r="A16" s="44" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C16" s="46"/>
     </row>
@@ -4031,8 +4054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4043,7 +4066,7 @@
     <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.1640625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -4077,16 +4100,16 @@
         <v>84</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17">
@@ -4094,7 +4117,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>85</v>
@@ -4133,7 +4156,7 @@
         <v>91</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4148,7 +4171,7 @@
         <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>90</v>
@@ -4157,7 +4180,7 @@
         <v>93</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>87</v>
@@ -4196,7 +4219,7 @@
         <v>99</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -4315,7 +4338,7 @@
         <v>192</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>193</v>
@@ -4338,22 +4361,24 @@
       <c r="A11" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>438</v>
+      </c>
+      <c r="E11" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G11" s="3"/>
+      <c r="F11" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>217</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4363,28 +4388,28 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4394,19 +4419,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4419,10 +4444,10 @@
     </row>
     <row r="14" spans="1:13" ht="34">
       <c r="A14" s="23" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>90</v>
@@ -4431,22 +4456,22 @@
         <v>93</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>87</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I14" s="23" t="s">
         <v>112</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K14" s="23" t="s">
         <v>99</v>
@@ -4456,7 +4481,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="23" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
@@ -4471,10 +4496,10 @@
         <v>72</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>93</v>
@@ -4487,16 +4512,16 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="23" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>153</v>
@@ -4512,19 +4537,19 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>227</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>231</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -4537,19 +4562,19 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>237</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>241</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>153</v>
@@ -4564,66 +4589,66 @@
     </row>
     <row r="19" spans="1:13" ht="51">
       <c r="A19" s="23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>71</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H19" s="23" t="s">
         <v>86</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L19" s="23" t="s">
         <v>87</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="23" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -4634,34 +4659,34 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>112</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -4669,22 +4694,22 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>112</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>153</v>
@@ -4698,19 +4723,19 @@
     </row>
     <row r="23" spans="1:13" ht="17">
       <c r="A23" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="E23" s="32" t="s">
         <v>388</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>392</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>46</v>
@@ -4718,10 +4743,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="38" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>15</v>
@@ -4730,54 +4755,54 @@
         <v>87</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="E25" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="F25" s="32" t="s">
         <v>400</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="G25" s="39" t="s">
         <v>401</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="H25" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="I25" s="39" t="s">
         <v>403</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="J25" s="39" t="s">
         <v>404</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="K25" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="L25" s="39" t="s">
         <v>406</v>
-      </c>
-      <c r="I25" s="39" t="s">
-        <v>407</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="K25" s="39" t="s">
-        <v>409</v>
-      </c>
-      <c r="L25" s="39" t="s">
-        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -4803,32 +4828,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17">
       <c r="A1" s="40" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="40"/>
       <c r="B2" s="40" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="187">
       <c r="A3" s="40" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="187">
       <c r="A4" s="40" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -4851,10 +4876,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="41" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4866,7 +4891,7 @@
         <v>767240995</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -4891,28 +4916,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="F1" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>425</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="D1" s="41" t="s">
+      <c r="H1" s="41" t="s">
         <v>426</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>427</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>428</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>429</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4923,36 +4948,36 @@
         <v>5</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="42" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G3" s="41"/>
       <c r="H3" s="42" t="s">
@@ -4967,29 +4992,29 @@
         <v>5</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G4" s="41">
         <v>97777707</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
@@ -5016,13 +5041,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5030,7 +5055,7 @@
         <v>13221514</v>
       </c>
       <c r="C2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/NE.xlsx
+++ b/resources/excels/NE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC7671A-7114-024E-9BE2-92882E65B669}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F989FCBA-5DE3-7844-B675-F901E7E8F773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="4020" windowWidth="30720" windowHeight="17520" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -23,23 +23,25 @@
     <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId8"/>
     <sheet name="All NFTR codes" sheetId="22" r:id="rId9"/>
     <sheet name="NFTRTickets-San" sheetId="3" r:id="rId10"/>
-    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId11"/>
-    <sheet name="All FTR codes" sheetId="23" r:id="rId12"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId13"/>
-    <sheet name="UserManagement" sheetId="13" r:id="rId14"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId15"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId16"/>
-    <sheet name="TemplateManagement" sheetId="16" r:id="rId17"/>
-    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId18"/>
-    <sheet name="Authentication Policy" sheetId="18" r:id="rId19"/>
-    <sheet name="Action Tagging" sheetId="19" r:id="rId20"/>
-    <sheet name="State Queue Mapping" sheetId="20" r:id="rId21"/>
-    <sheet name="Transfer To Queue" sheetId="21" r:id="rId22"/>
-    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId23"/>
+    <sheet name="Assignment Rule" sheetId="29" r:id="rId11"/>
+    <sheet name="SLA Configuration" sheetId="30" r:id="rId12"/>
+    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId13"/>
+    <sheet name="All FTR codes" sheetId="23" r:id="rId14"/>
+    <sheet name="FTRTickets-San" sheetId="2" r:id="rId15"/>
+    <sheet name="UserManagement" sheetId="13" r:id="rId16"/>
+    <sheet name="PinnedTags" sheetId="5" r:id="rId17"/>
+    <sheet name="Ticket State" sheetId="6" r:id="rId18"/>
+    <sheet name="TemplateManagement" sheetId="16" r:id="rId19"/>
+    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId20"/>
+    <sheet name="Authentication Policy" sheetId="18" r:id="rId21"/>
+    <sheet name="Action Tagging" sheetId="19" r:id="rId22"/>
+    <sheet name="State Queue Mapping" sheetId="20" r:id="rId23"/>
+    <sheet name="Transfer To Queue" sheetId="21" r:id="rId24"/>
+    <sheet name="QuestionAnswerKey" sheetId="24" r:id="rId25"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'FTRTickets-Reg'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'FTRTickets-San'!$A$1:$E$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'FTRTickets-Reg'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'FTRTickets-San'!$A$1:$E$126</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'NFTRTickets-San'!$A$1:$AB$72</definedName>
   </definedNames>
@@ -52,8 +54,197 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{53D78965-580B-E346-BD93-D4B7E5C42E1B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0D4607AC-284E-8F46-B183-9DD4BFB45F17}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{307B105A-9D91-8F4E-BC6D-AEB22E4E8905}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{5E937EDF-C38A-0C42-84BF-67D891F1D621}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{9BEA97F3-D1EC-F14F-8BC6-315E19A18457}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Rahul Gupta:
+This column represent the customer Type</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{93417193-E54C-A44E-AAD0-B3D0060AB07D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer service category</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{75F6CD76-1C55-8844-8195-E622A116CAC8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer segment</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="449">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -262,9 +453,6 @@
     <t>ENQ051</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
     <t>Date of Birth</t>
   </si>
   <si>
@@ -404,9 +592,6 @@
   </si>
   <si>
     <t>Advisor Supervisor</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>Roles</t>
@@ -1142,33 +1327,6 @@
     <t>PSCISOSFTR</t>
   </si>
   <si>
-    <t>Customer Service NFTR</t>
-  </si>
-  <si>
-    <t>Product NFTR</t>
-  </si>
-  <si>
-    <t>Desactivation Airtel VAS NFTR</t>
-  </si>
-  <si>
-    <t>Desactivation 605 NFTR</t>
-  </si>
-  <si>
-    <t>PDAVASD605NFTR</t>
-  </si>
-  <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
-    <t>Customer segment</t>
-  </si>
-  <si>
-    <t>Text Box</t>
-  </si>
-  <si>
-    <t>Drop Down</t>
-  </si>
-  <si>
     <t>NE Action Authentication</t>
   </si>
   <si>
@@ -1377,13 +1535,73 @@
   </si>
   <si>
     <t>Loan Paid</t>
+  </si>
+  <si>
+    <t>Service request</t>
+  </si>
+  <si>
+    <t>CS Automation NFTR</t>
+  </si>
+  <si>
+    <t>Ignore this category code</t>
+  </si>
+  <si>
+    <t>Do not close this ticket</t>
+  </si>
+  <si>
+    <t>Auto01</t>
+  </si>
+  <si>
+    <t>CS Test Automation</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Attribute name</t>
+  </si>
+  <si>
+    <t>Attribute value</t>
+  </si>
+  <si>
+    <t>Workgroup Name</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Rule Priority</t>
+  </si>
+  <si>
+    <t>customerVip</t>
+  </si>
+  <si>
+    <t>lineType</t>
+  </si>
+  <si>
+    <t>customerType</t>
+  </si>
+  <si>
+    <t>serviceCategory</t>
+  </si>
+  <si>
+    <t>customerSegment</t>
+  </si>
+  <si>
+    <t>customerSubSegment</t>
+  </si>
+  <si>
+    <t>interactionChannel</t>
+  </si>
+  <si>
+    <t>Default SLA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1485,6 +1703,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333399"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1639,7 +1876,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1715,6 +1952,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2302,13 +2542,13 @@
         <v>11</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2316,7 +2556,7 @@
         <v>2390495</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -2328,10 +2568,10 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P2">
         <v>97777707</v>
@@ -2343,7 +2583,7 @@
         <v>2388192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2361,10 +2601,10 @@
         <v>2390495</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>97777707</v>
@@ -2379,10 +2619,10 @@
         <v>2394650</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>97777707</v>
@@ -2402,8 +2642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="BH2" sqref="BH2"/>
+    <sheetView topLeftCell="AP1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BF11" sqref="BF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2495,34 +2735,34 @@
         <v>21</v>
       </c>
       <c r="U1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" t="s">
         <v>73</v>
-      </c>
-      <c r="V1" t="s">
-        <v>74</v>
       </c>
       <c r="W1" t="s">
         <v>21</v>
       </c>
       <c r="X1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Y1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z1" t="s">
         <v>21</v>
       </c>
       <c r="AA1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AB1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AC1" t="s">
         <v>21</v>
       </c>
       <c r="AD1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AE1" t="s">
         <v>23</v>
@@ -2531,7 +2771,7 @@
         <v>21</v>
       </c>
       <c r="AG1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AH1" t="s">
         <v>25</v>
@@ -2540,7 +2780,7 @@
         <v>21</v>
       </c>
       <c r="AJ1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AK1" t="s">
         <v>27</v>
@@ -2549,7 +2789,7 @@
         <v>21</v>
       </c>
       <c r="AM1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AN1" t="s">
         <v>29</v>
@@ -2558,19 +2798,19 @@
         <v>21</v>
       </c>
       <c r="AP1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AQ1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AR1" t="s">
         <v>21</v>
       </c>
       <c r="AS1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AT1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AU1" t="s">
         <v>21</v>
@@ -2582,25 +2822,25 @@
         <v>33</v>
       </c>
       <c r="AX1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>176</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>177</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>178</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>179</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>180</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>182</v>
       </c>
       <c r="BE1" t="s">
         <v>37</v>
@@ -2612,66 +2852,48 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
-      <c r="A2" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>30</v>
-      </c>
+    <row r="2" spans="1:59" ht="18">
+      <c r="A2" s="50" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
       <c r="AV2" s="34" t="s">
-        <v>335</v>
+        <v>434</v>
       </c>
       <c r="AW2">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="BD2">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="BE2" t="s">
-        <v>342</v>
+        <v>434</v>
       </c>
       <c r="BF2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="BG2" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2681,6 +2903,172 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468B8C55-6D5F-4340-809F-3D9CEE174E75}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="25">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A3E510-C6AD-8547-B49A-4AF6F0FD9A0E}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q1" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="J2" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="R2" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -2714,7 +3102,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2724,7 +3112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -2751,7 +3139,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2759,7 +3147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2792,24 +3180,24 @@
         <v>18</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="D2" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="E2" s="34" t="s">
         <v>358</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2817,7 +3205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -2845,10 +3233,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="33" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>34</v>
@@ -2859,10 +3247,10 @@
         <v>42</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2870,10 +3258,10 @@
         <v>43</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2881,77 +3269,77 @@
         <v>44</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="33" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="33" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="33" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="33" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="33" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="33" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>35</v>
@@ -2959,7 +3347,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>36</v>
@@ -2967,50 +3355,50 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="33" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="33" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="33" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="33" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="33" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -3018,7 +3406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3042,7 +3430,7 @@
         <v>48</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3071,7 +3459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -3149,7 +3537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -3165,49 +3553,49 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3215,7 +3603,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -3233,19 +3674,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3253,7 +3694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -3279,76 +3720,76 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:15" ht="144">
       <c r="A2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E2" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="43" t="s">
+      <c r="I2" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>135</v>
-      </c>
       <c r="J2" s="45" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
@@ -3358,60 +3799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -3434,45 +3822,45 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>159</v>
-      </c>
       <c r="H1" s="29" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -3486,7 +3874,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -3495,10 +3883,10 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J3" s="9" t="b">
         <v>0</v>
@@ -3506,7 +3894,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -3522,7 +3910,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -3538,7 +3926,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -3554,7 +3942,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -3570,7 +3958,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -3586,7 +3974,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -3602,7 +3990,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3618,7 +4006,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3634,7 +4022,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3650,7 +4038,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3676,7 +4064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -3695,37 +4083,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>171</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16">
@@ -3751,7 +4139,7 @@
     </row>
     <row r="3" spans="1:11" ht="16">
       <c r="A3" s="33" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>49</v>
@@ -3772,7 +4160,7 @@
     </row>
     <row r="4" spans="1:11" ht="16">
       <c r="A4" s="33" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>49</v>
@@ -3797,7 +4185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -3813,13 +4201,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3827,7 +4215,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C2" s="25" t="b">
         <v>1</v>
@@ -3835,7 +4223,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="33" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>34</v>
@@ -3846,10 +4234,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="33" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C4" s="25" t="b">
         <v>1</v>
@@ -3861,7 +4249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -3878,169 +4266,169 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C6" s="31"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C13" s="31"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34">
       <c r="A16" s="44" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C16" s="46"/>
     </row>
@@ -4054,7 +4442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
@@ -4073,43 +4461,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="J1" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="M1" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17">
@@ -4117,19 +4505,19 @@
         <v>34</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -4141,22 +4529,22 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4168,22 +4556,22 @@
     </row>
     <row r="4" spans="1:13" ht="17">
       <c r="A4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="E4" s="24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4195,31 +4583,31 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -4228,19 +4616,19 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -4253,19 +4641,19 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -4278,22 +4666,22 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -4305,22 +4693,22 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -4332,22 +4720,22 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -4359,25 +4747,25 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -4388,28 +4776,28 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4419,19 +4807,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4444,65 +4832,65 @@
     </row>
     <row r="14" spans="1:13" ht="34">
       <c r="A14" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="24" t="s">
+      <c r="H14" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="23" t="s">
+      <c r="I14" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="H14" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>215</v>
-      </c>
       <c r="K14" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>91</v>
-      </c>
       <c r="E15" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -4512,19 +4900,19 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -4537,19 +4925,19 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="D17" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="E17" s="23" t="s">
         <v>225</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>227</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -4562,22 +4950,22 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="D18" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="E18" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>237</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -4589,66 +4977,66 @@
     </row>
     <row r="19" spans="1:13" ht="51">
       <c r="A19" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="F19" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="J19" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="F19" s="23" t="s">
+      <c r="K19" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" s="23" t="s">
         <v>241</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="L19" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" s="23" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="E20" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="23" t="s">
+      <c r="F20" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="G20" s="23" t="s">
         <v>247</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>249</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -4659,34 +5047,34 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -4694,25 +5082,25 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -4723,19 +5111,19 @@
     </row>
     <row r="23" spans="1:13" ht="17">
       <c r="A23" s="37" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>46</v>
@@ -4743,66 +5131,66 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="38" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="K25" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="L25" s="39" t="s">
         <v>395</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>396</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="I25" s="39" t="s">
-        <v>403</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>404</v>
-      </c>
-      <c r="K25" s="39" t="s">
-        <v>405</v>
-      </c>
-      <c r="L25" s="39" t="s">
-        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -4828,32 +5216,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17">
       <c r="A1" s="40" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="40"/>
       <c r="B2" s="40" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="187">
       <c r="A3" s="40" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="187">
       <c r="A4" s="40" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -4876,10 +5264,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="41" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4891,7 +5279,7 @@
         <v>767240995</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -4916,28 +5304,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="41" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C1" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="G1" s="41" t="s">
         <v>414</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>422</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>423</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>424</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>425</v>
-      </c>
       <c r="H1" s="41" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4948,36 +5336,36 @@
         <v>5</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="42" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G3" s="41"/>
       <c r="H3" s="42" t="s">
@@ -4992,29 +5380,29 @@
         <v>5</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G4" s="41">
         <v>97777707</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
@@ -5041,13 +5429,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B1" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="C1" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5055,7 +5443,7 @@
         <v>13221514</v>
       </c>
       <c r="C2" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -5160,34 +5548,34 @@
         <v>21</v>
       </c>
       <c r="U1" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="20" t="s">
         <v>73</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>74</v>
       </c>
       <c r="W1" s="20" t="s">
         <v>21</v>
       </c>
       <c r="X1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Y1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z1" t="s">
         <v>21</v>
       </c>
       <c r="AA1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AB1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AC1" t="s">
         <v>21</v>
       </c>
       <c r="AD1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AE1" t="s">
         <v>23</v>
@@ -5196,7 +5584,7 @@
         <v>21</v>
       </c>
       <c r="AG1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AH1" t="s">
         <v>25</v>
@@ -5205,7 +5593,7 @@
         <v>21</v>
       </c>
       <c r="AJ1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AK1" t="s">
         <v>27</v>
@@ -5214,7 +5602,7 @@
         <v>21</v>
       </c>
       <c r="AM1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AN1" t="s">
         <v>29</v>
@@ -5223,19 +5611,19 @@
         <v>21</v>
       </c>
       <c r="AP1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AQ1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AR1" t="s">
         <v>21</v>
       </c>
       <c r="AS1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AT1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AU1" t="s">
         <v>21</v>
@@ -5247,25 +5635,25 @@
         <v>33</v>
       </c>
       <c r="AX1" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="AZ1" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="AY1" s="21" t="s">
+      <c r="BA1" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="AZ1" s="21" t="s">
+      <c r="BB1" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="BA1" s="21" t="s">
+      <c r="BC1" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="BB1" s="21" t="s">
+      <c r="BD1" s="22" t="s">
         <v>180</v>
-      </c>
-      <c r="BC1" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="BD1" s="22" t="s">
-        <v>182</v>
       </c>
       <c r="BE1" t="s">
         <v>37</v>
@@ -5381,34 +5769,34 @@
         <v>21</v>
       </c>
       <c r="U1" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="20" t="s">
         <v>73</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>74</v>
       </c>
       <c r="W1" s="20" t="s">
         <v>21</v>
       </c>
       <c r="X1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Y1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z1" t="s">
         <v>21</v>
       </c>
       <c r="AA1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AB1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AC1" t="s">
         <v>21</v>
       </c>
       <c r="AD1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AE1" t="s">
         <v>23</v>
@@ -5417,7 +5805,7 @@
         <v>21</v>
       </c>
       <c r="AG1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AH1" t="s">
         <v>25</v>
@@ -5426,7 +5814,7 @@
         <v>21</v>
       </c>
       <c r="AJ1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AK1" t="s">
         <v>27</v>
@@ -5435,7 +5823,7 @@
         <v>21</v>
       </c>
       <c r="AM1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AN1" t="s">
         <v>29</v>
@@ -5444,19 +5832,19 @@
         <v>21</v>
       </c>
       <c r="AP1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AQ1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AR1" t="s">
         <v>21</v>
       </c>
       <c r="AS1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AT1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AU1" t="s">
         <v>21</v>
@@ -5468,25 +5856,25 @@
         <v>33</v>
       </c>
       <c r="AX1" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="AZ1" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="AY1" s="21" t="s">
+      <c r="BA1" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="AZ1" s="21" t="s">
+      <c r="BB1" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="BA1" s="21" t="s">
+      <c r="BC1" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="BB1" s="21" t="s">
+      <c r="BD1" s="22" t="s">
         <v>180</v>
-      </c>
-      <c r="BC1" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="BD1" s="22" t="s">
-        <v>182</v>
       </c>
       <c r="BE1" t="s">
         <v>37</v>

--- a/resources/excels/NE.xlsx
+++ b/resources/excels/NE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F989FCBA-5DE3-7844-B675-F901E7E8F773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FFD961-6152-2448-B254-AD8E56FFDE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="4020" windowWidth="30720" windowHeight="17520" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5120" yWindow="3260" windowWidth="30720" windowHeight="17520" firstSheet="15" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="446">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1514,15 +1514,6 @@
   </si>
   <si>
     <t>invalidMsisdn</t>
-  </si>
-  <si>
-    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
-  </si>
-  <si>
-    <t>Last Data Bundle Recharge Amount in 2 months</t>
-  </si>
-  <si>
-    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
   </si>
   <si>
     <t>Loan ID</t>
@@ -1601,7 +1592,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1690,12 +1681,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1876,7 +1861,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1942,18 +1927,14 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
@@ -2853,20 +2834,20 @@
       </c>
     </row>
     <row r="2" spans="1:59" ht="18">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>429</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>430</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>432</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>433</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
@@ -2878,7 +2859,7 @@
       <c r="M2" s="35"/>
       <c r="N2" s="36"/>
       <c r="AV2" s="34" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AW2">
         <v>0.6</v>
@@ -2887,7 +2868,7 @@
         <v>0.6</v>
       </c>
       <c r="BE2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="BF2" t="s">
         <v>63</v>
@@ -2914,16 +2895,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>435</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>438</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>37</v>
@@ -2932,23 +2913,23 @@
         <v>38</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>63</v>
@@ -2970,7 +2951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A3E510-C6AD-8547-B49A-4AF6F0FD9A0E}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2978,28 +2959,28 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="25" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="F1" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>32</v>
@@ -3025,16 +3006,16 @@
       <c r="P1" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="Q1" s="50" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="25" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="15" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -3044,7 +3025,7 @@
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J2" s="15">
         <v>0.6</v>
@@ -3788,9 +3769,7 @@
       <c r="I2" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="45" t="s">
-        <v>422</v>
-      </c>
+      <c r="J2" s="44"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
     </row>
@@ -4251,10 +4230,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4422,15 +4401,6 @@
       <c r="C15" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="34">
-      <c r="A16" s="44" t="s">
-        <v>423</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>424</v>
-      </c>
-      <c r="C16" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4749,22 +4719,22 @@
       <c r="A11" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="45" t="s">
+        <v>422</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="46" t="s">
         <v>425</v>
       </c>
-      <c r="C11" s="48" t="s">
-        <v>426</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>427</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>428</v>
-      </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="46" t="s">
         <v>215</v>
       </c>
       <c r="H11" s="3"/>
